--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>255010</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安稳健混合</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.76</t>
+          <t>12.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>255010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>国联安稳健混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,25 +710,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000538</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合A</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002053</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安优势行业灵活配置混合C</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.07</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>000538</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>诺安优势行业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -762,25 +862,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008185</t>
+          <t>002053</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -870,7 +871,6 @@
           <t>诺安优势行业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -886,6 +886,290 @@
       </c>
       <c r="H6" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>255010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1175,4 +1176,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1346,4 +1347,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1355,7 +1356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,17 +1367,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1386,14 +1407,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.89</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1402,14 +1445,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.68</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1418,14 +1483,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -1434,13 +1521,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1754,7 +1755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,17 +1766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1785,14 +1806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.15</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1801,14 +1844,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1817,14 +1882,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.68</v>
       </c>
     </row>
     <row r="5">
@@ -1833,14 +1920,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.35</v>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1849,13 +1958,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2153,7 +2154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,17 +2165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2184,14 +2205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.66</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2200,14 +2243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.15</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2216,14 +2281,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.89</v>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2232,14 +2319,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.68</v>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2248,14 +2357,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.35</v>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2264,13 +2395,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
+++ b/数据整理/stocks/A股/上证主板/603666-亿嘉和.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.86</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.66</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.15</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.35</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -914,404 +1101,6 @@
       </c>
       <c r="H8" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>34.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4638</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2316</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002350</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安安华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0278</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3460</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163302</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大摩资源优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2893</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1539</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0938</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1386,26 +1175,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109.63</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.58</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0282</t>
+          <t>1.4638</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1414,36 +1203,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002350</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安安华灵活配置混合</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.51</t>
+          <t>34.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2548</t>
+          <t>1.2316</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1452,36 +1241,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003962</t>
+          <t>002350</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合C</t>
+          <t>华安安华灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.19</t>
+          <t>42.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0136</t>
+          <t>1.0278</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1490,32 +1279,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>003962</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>易方达瑞程灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2852</t>
+          <t>0.3460</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1528,36 +1317,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2709</t>
+          <t>0.2893</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1566,36 +1355,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003882</t>
+          <t>003839</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合A</t>
+          <t>易方达瑞通灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>30.81</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1218</t>
+          <t>0.1539</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1604,36 +1393,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003840</t>
+          <t>003882</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合C</t>
+          <t>易方达瑞弘灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30.20</t>
+          <t>28.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1642,36 +1431,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003839</t>
+          <t>003883</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达瑞通灵活配置混合A</t>
+          <t>易方达瑞弘灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.20</t>
+          <t>28.58</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1680,36 +1469,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003883</t>
+          <t>003840</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达瑞弘灵活配置混合C</t>
+          <t>易方达瑞通灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>30.81</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1718,6 +1507,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1887,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2410,7 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
